--- a/seleniumTestNG/src/test/resources/_data/demo.xlsx
+++ b/seleniumTestNG/src/test/resources/_data/demo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\seleniumTestNG\src\test\resources\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java-lotus\seleniumTestNG\src\test\resources\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="0" windowWidth="27870" windowHeight="12915" activeTab="2"/>
+    <workbookView xWindow="9300" yWindow="0" windowWidth="27870" windowHeight="12915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
     <t>Dashboard</t>
   </si>
   <si>
-    <t> Authentication failed!</t>
+    <t>Authentication failed!</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/seleniumTestNG/src/test/resources/_data/demo.xlsx
+++ b/seleniumTestNG/src/test/resources/_data/demo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="0" windowWidth="27870" windowHeight="12915" activeTab="2"/>
+    <workbookView xWindow="10230" yWindow="0" windowWidth="27870" windowHeight="12915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -160,6 +160,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,12 +595,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -607,7 +608,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -624,7 +625,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -641,7 +642,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -658,7 +659,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -675,7 +676,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" t="s">
